--- a/dataAnalysis/ErrClassOverview.xlsx
+++ b/dataAnalysis/ErrClassOverview.xlsx
@@ -122,7 +122,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,20 +132,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -487,22 +540,22 @@
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -531,131 +584,131 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
       <c r="C3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>119</v>
+      </c>
+      <c r="G6">
         <v>10</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -664,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -694,22 +747,22 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -738,30 +791,30 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -773,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -784,85 +837,85 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D17">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -871,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7">
